--- a/data/KKD2526.xlsx
+++ b/data/KKD2526.xlsx
@@ -10,12 +10,14 @@
     <sheet name="Stand" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Player xG" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Shots" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stand2" sheetId="9" state="visible" r:id="rId6"/>
+    <sheet name="Wedstrijden2" r:id="rId10" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="648">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1563,6 +1565,402 @@
   </si>
   <si>
     <t xml:space="preserve">PSV II - FC Emmen</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Pts</t>
+  </si>
+  <si>
+    <t>xGF</t>
+  </si>
+  <si>
+    <t>xGA</t>
+  </si>
+  <si>
+    <t>xGD</t>
+  </si>
+  <si>
+    <t>xPts</t>
+  </si>
+  <si>
+    <t>xRank</t>
+  </si>
+  <si>
+    <t>xT_for</t>
+  </si>
+  <si>
+    <t>xT_against</t>
+  </si>
+  <si>
+    <t>box_for</t>
+  </si>
+  <si>
+    <t>box_against</t>
+  </si>
+  <si>
+    <t>xT_for.90</t>
+  </si>
+  <si>
+    <t>xT_against.90</t>
+  </si>
+  <si>
+    <t>box_for.90</t>
+  </si>
+  <si>
+    <t>box_against.90</t>
+  </si>
+  <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>FC Dordrecht</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>TOP Oss</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>Cambuur Leeuwarden</t>
+  </si>
+  <si>
+    <t>VVV Venlo</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>FC Utrecht II</t>
+  </si>
+  <si>
+    <t>Almere City FC</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>MVV</t>
+  </si>
+  <si>
+    <t>FC Emmen</t>
+  </si>
+  <si>
+    <t>FC Den Bosch</t>
+  </si>
+  <si>
+    <t>FC Eindhoven</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>HomeName</t>
+  </si>
+  <si>
+    <t>HomeGoals</t>
+  </si>
+  <si>
+    <t>AwayGoals</t>
+  </si>
+  <si>
+    <t>AwayName</t>
+  </si>
+  <si>
+    <t>Home_xG</t>
+  </si>
+  <si>
+    <t>Away_xG</t>
+  </si>
+  <si>
+    <t>home_win_prob</t>
+  </si>
+  <si>
+    <t>draw_prob</t>
+  </si>
+  <si>
+    <t>away_win_prob</t>
+  </si>
+  <si>
+    <t>box_home</t>
+  </si>
+  <si>
+    <t>box_away</t>
+  </si>
+  <si>
+    <t>xt_home</t>
+  </si>
+  <si>
+    <t>xt_away</t>
+  </si>
+  <si>
+    <t>home_odds</t>
+  </si>
+  <si>
+    <t>draw_odds</t>
+  </si>
+  <si>
+    <t>away_odds</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-10</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>79.57%</t>
+  </si>
+  <si>
+    <t>27.79%</t>
+  </si>
+  <si>
+    <t>57.46%</t>
+  </si>
+  <si>
+    <t>10.68%</t>
+  </si>
+  <si>
+    <t>74.82%</t>
+  </si>
+  <si>
+    <t>7.35%</t>
+  </si>
+  <si>
+    <t>66.66%</t>
+  </si>
+  <si>
+    <t>42.7%</t>
+  </si>
+  <si>
+    <t>78.09%</t>
+  </si>
+  <si>
+    <t>15.83%</t>
+  </si>
+  <si>
+    <t>45.68%</t>
+  </si>
+  <si>
+    <t>33.85%</t>
+  </si>
+  <si>
+    <t>57.69%</t>
+  </si>
+  <si>
+    <t>23.23%</t>
+  </si>
+  <si>
+    <t>21.76%</t>
+  </si>
+  <si>
+    <t>79.15%</t>
+  </si>
+  <si>
+    <t>46.37%</t>
+  </si>
+  <si>
+    <t>6.52%</t>
+  </si>
+  <si>
+    <t>12.72%</t>
+  </si>
+  <si>
+    <t>29.54%</t>
+  </si>
+  <si>
+    <t>25.34%</t>
+  </si>
+  <si>
+    <t>37.13%</t>
+  </si>
+  <si>
+    <t>15.09%</t>
+  </si>
+  <si>
+    <t>12.86%</t>
+  </si>
+  <si>
+    <t>22.1%</t>
+  </si>
+  <si>
+    <t>29.74%</t>
+  </si>
+  <si>
+    <t>15.94%</t>
+  </si>
+  <si>
+    <t>24.55%</t>
+  </si>
+  <si>
+    <t>34.31%</t>
+  </si>
+  <si>
+    <t>29.46%</t>
+  </si>
+  <si>
+    <t>20.52%</t>
+  </si>
+  <si>
+    <t>23.46%</t>
+  </si>
+  <si>
+    <t>21.17%</t>
+  </si>
+  <si>
+    <t>13.15%</t>
+  </si>
+  <si>
+    <t>24.03%</t>
+  </si>
+  <si>
+    <t>14.43%</t>
+  </si>
+  <si>
+    <t>7.71%</t>
+  </si>
+  <si>
+    <t>42.67%</t>
+  </si>
+  <si>
+    <t>17.2%</t>
+  </si>
+  <si>
+    <t>52.19%</t>
+  </si>
+  <si>
+    <t>10.09%</t>
+  </si>
+  <si>
+    <t>79.79%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>27.56%</t>
+  </si>
+  <si>
+    <t>5.97%</t>
+  </si>
+  <si>
+    <t>59.62%</t>
+  </si>
+  <si>
+    <t>20.01%</t>
+  </si>
+  <si>
+    <t>36.69%</t>
+  </si>
+  <si>
+    <t>21.79%</t>
+  </si>
+  <si>
+    <t>53.31%</t>
+  </si>
+  <si>
+    <t>57.07%</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>29.6%</t>
+  </si>
+  <si>
+    <t>79.05%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xt_home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xt_away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_for.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_against.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_for.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_against.90</t>
   </si>
 </sst>
 </file>
@@ -2514,6 +2912,1026 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" t="s">
+        <v>568</v>
+      </c>
+      <c r="L1" t="s">
+        <v>569</v>
+      </c>
+      <c r="M1" t="s">
+        <v>570</v>
+      </c>
+      <c r="N1" t="s">
+        <v>571</v>
+      </c>
+      <c r="O1" t="s">
+        <v>572</v>
+      </c>
+      <c r="P1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2" t="s">
+        <v>600</v>
+      </c>
+      <c r="J2" t="s">
+        <v>618</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" t="s">
+        <v>601</v>
+      </c>
+      <c r="J3" t="s">
+        <v>619</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I4" t="s">
+        <v>602</v>
+      </c>
+      <c r="J4" t="s">
+        <v>620</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>585</v>
+      </c>
+      <c r="I5" t="s">
+        <v>603</v>
+      </c>
+      <c r="J5" t="s">
+        <v>621</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>554</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H6" t="s">
+        <v>586</v>
+      </c>
+      <c r="I6" t="s">
+        <v>604</v>
+      </c>
+      <c r="J6" t="s">
+        <v>622</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I7" t="s">
+        <v>605</v>
+      </c>
+      <c r="J7" t="s">
+        <v>623</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>546</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>588</v>
+      </c>
+      <c r="I8" t="s">
+        <v>606</v>
+      </c>
+      <c r="J8" t="s">
+        <v>624</v>
+      </c>
+      <c r="K8" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>589</v>
+      </c>
+      <c r="I9" t="s">
+        <v>607</v>
+      </c>
+      <c r="J9" t="s">
+        <v>625</v>
+      </c>
+      <c r="K9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>555</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>590</v>
+      </c>
+      <c r="I10" t="s">
+        <v>608</v>
+      </c>
+      <c r="J10" t="s">
+        <v>626</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>550</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>591</v>
+      </c>
+      <c r="I11" t="s">
+        <v>609</v>
+      </c>
+      <c r="J11" t="s">
+        <v>627</v>
+      </c>
+      <c r="K11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>544</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>592</v>
+      </c>
+      <c r="I12" t="s">
+        <v>610</v>
+      </c>
+      <c r="J12" t="s">
+        <v>628</v>
+      </c>
+      <c r="K12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>540</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>593</v>
+      </c>
+      <c r="I13" t="s">
+        <v>611</v>
+      </c>
+      <c r="J13" t="s">
+        <v>629</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>543</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>594</v>
+      </c>
+      <c r="I14" t="s">
+        <v>612</v>
+      </c>
+      <c r="J14" t="s">
+        <v>630</v>
+      </c>
+      <c r="K14" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.399</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>541</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>595</v>
+      </c>
+      <c r="I15" t="s">
+        <v>613</v>
+      </c>
+      <c r="J15" t="s">
+        <v>631</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" t="s">
+        <v>555</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>552</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>596</v>
+      </c>
+      <c r="I16" t="s">
+        <v>614</v>
+      </c>
+      <c r="J16" t="s">
+        <v>632</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>580</v>
+      </c>
+      <c r="B17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>557</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>597</v>
+      </c>
+      <c r="I17" t="s">
+        <v>615</v>
+      </c>
+      <c r="J17" t="s">
+        <v>633</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>547</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H18" t="s">
+        <v>598</v>
+      </c>
+      <c r="I18" t="s">
+        <v>616</v>
+      </c>
+      <c r="J18" t="s">
+        <v>634</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>539</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>599</v>
+      </c>
+      <c r="I19" t="s">
+        <v>617</v>
+      </c>
+      <c r="J19" t="s">
+        <v>635</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -59801,4 +61219,1438 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>641</v>
+      </c>
+      <c r="R1" t="s">
+        <v>642</v>
+      </c>
+      <c r="S1" t="s">
+        <v>643</v>
+      </c>
+      <c r="T1" t="s">
+        <v>644</v>
+      </c>
+      <c r="U1" t="s">
+        <v>645</v>
+      </c>
+      <c r="V1" t="s">
+        <v>646</v>
+      </c>
+      <c r="W1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.929</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="R2" t="n">
+        <v>94</v>
+      </c>
+      <c r="S2" t="n">
+        <v>31</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.9645</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5715</v>
+      </c>
+      <c r="V2" t="n">
+        <v>47</v>
+      </c>
+      <c r="W2" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>61</v>
+      </c>
+      <c r="S3" t="n">
+        <v>48</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.825</v>
+      </c>
+      <c r="R4" t="n">
+        <v>55</v>
+      </c>
+      <c r="S4" t="n">
+        <v>26</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.4825</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.4125</v>
+      </c>
+      <c r="V4" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.282</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.123</v>
+      </c>
+      <c r="R5" t="n">
+        <v>56</v>
+      </c>
+      <c r="S5" t="n">
+        <v>75</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.5615</v>
+      </c>
+      <c r="V5" t="n">
+        <v>28</v>
+      </c>
+      <c r="W5" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.084</v>
+      </c>
+      <c r="R6" t="n">
+        <v>35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>52</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.7725</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.542</v>
+      </c>
+      <c r="V6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.512</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.744</v>
+      </c>
+      <c r="R7" t="n">
+        <v>42</v>
+      </c>
+      <c r="S7" t="n">
+        <v>53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.372</v>
+      </c>
+      <c r="V7" t="n">
+        <v>21</v>
+      </c>
+      <c r="W7" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.819</v>
+      </c>
+      <c r="R8" t="n">
+        <v>61</v>
+      </c>
+      <c r="S8" t="n">
+        <v>61</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.4095</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5.204</v>
+      </c>
+      <c r="R9" t="n">
+        <v>44</v>
+      </c>
+      <c r="S9" t="n">
+        <v>72</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.4995</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.602</v>
+      </c>
+      <c r="V9" t="n">
+        <v>22</v>
+      </c>
+      <c r="W9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R10" t="n">
+        <v>58</v>
+      </c>
+      <c r="S10" t="n">
+        <v>39</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.9345</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="V10" t="n">
+        <v>29</v>
+      </c>
+      <c r="W10" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.565</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.007</v>
+      </c>
+      <c r="R11" t="n">
+        <v>37</v>
+      </c>
+      <c r="S11" t="n">
+        <v>42</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.2825</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.0035</v>
+      </c>
+      <c r="V11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.241</v>
+      </c>
+      <c r="R12" t="n">
+        <v>67</v>
+      </c>
+      <c r="S12" t="n">
+        <v>51</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.9305</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.1205</v>
+      </c>
+      <c r="V12" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>12</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.941</v>
+      </c>
+      <c r="R13" t="n">
+        <v>68</v>
+      </c>
+      <c r="S13" t="n">
+        <v>56</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.9705</v>
+      </c>
+      <c r="V13" t="n">
+        <v>34</v>
+      </c>
+      <c r="W13" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>13</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="R14" t="n">
+        <v>33</v>
+      </c>
+      <c r="S14" t="n">
+        <v>49</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.5225</v>
+      </c>
+      <c r="V14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>14</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="R15" t="n">
+        <v>26</v>
+      </c>
+      <c r="S15" t="n">
+        <v>12</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="V15" t="n">
+        <v>26</v>
+      </c>
+      <c r="W15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.941</v>
+      </c>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="n">
+        <v>48</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.9705</v>
+      </c>
+      <c r="V16" t="n">
+        <v>15</v>
+      </c>
+      <c r="W16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>16</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.004</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="R17" t="n">
+        <v>42</v>
+      </c>
+      <c r="S17" t="n">
+        <v>55</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="V17" t="n">
+        <v>21</v>
+      </c>
+      <c r="W17" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="R18" t="n">
+        <v>27</v>
+      </c>
+      <c r="S18" t="n">
+        <v>43</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.7985</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.7575</v>
+      </c>
+      <c r="V18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>18</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="R19" t="n">
+        <v>30</v>
+      </c>
+      <c r="S19" t="n">
+        <v>34</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="V19" t="n">
+        <v>30</v>
+      </c>
+      <c r="W19" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>19</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.292</v>
+      </c>
+      <c r="R20" t="n">
+        <v>27</v>
+      </c>
+      <c r="S20" t="n">
+        <v>46</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="V20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/data/KKD2526.xlsx
+++ b/data/KKD2526.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Stand" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Player xG" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Shots" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Stand2" sheetId="9" state="visible" r:id="rId6"/>
-    <sheet name="Wedstrijden2" r:id="rId10" sheetId="10"/>
+    <sheet name="Stand2" sheetId="17" state="visible" r:id="rId6"/>
+    <sheet name="Wedstrijden2" r:id="rId10" sheetId="18"/>
   </sheets>
 </workbook>
 </file>
@@ -2912,7 +2912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/KKD2526.xlsx
+++ b/data/KKD2526.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Stand" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Player xG" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Shots" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Stand2" sheetId="17" state="visible" r:id="rId6"/>
-    <sheet name="Wedstrijden2" r:id="rId10" sheetId="18"/>
+    <sheet name="Stand2" sheetId="21" state="visible" r:id="rId6"/>
+    <sheet name="Wedstrijden2" r:id="rId10" sheetId="22"/>
   </sheets>
 </workbook>
 </file>
@@ -2912,1026 +2912,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G1" t="s">
-        <v>564</v>
-      </c>
-      <c r="H1" t="s">
-        <v>565</v>
-      </c>
-      <c r="I1" t="s">
-        <v>566</v>
-      </c>
-      <c r="J1" t="s">
-        <v>567</v>
-      </c>
-      <c r="K1" t="s">
-        <v>568</v>
-      </c>
-      <c r="L1" t="s">
-        <v>569</v>
-      </c>
-      <c r="M1" t="s">
-        <v>570</v>
-      </c>
-      <c r="N1" t="s">
-        <v>571</v>
-      </c>
-      <c r="O1" t="s">
-        <v>572</v>
-      </c>
-      <c r="P1" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>582</v>
-      </c>
-      <c r="I2" t="s">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>618</v>
-      </c>
-      <c r="K2" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.213</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.462</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.632</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>545</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>583</v>
-      </c>
-      <c r="I3" t="s">
-        <v>601</v>
-      </c>
-      <c r="J3" t="s">
-        <v>619</v>
-      </c>
-      <c r="K3" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.901</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>575</v>
-      </c>
-      <c r="B4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>548</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="H4" t="s">
-        <v>584</v>
-      </c>
-      <c r="I4" t="s">
-        <v>602</v>
-      </c>
-      <c r="J4" t="s">
-        <v>620</v>
-      </c>
-      <c r="K4" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.352</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>575</v>
-      </c>
-      <c r="B5" t="s">
-        <v>557</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>551</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="H5" t="s">
-        <v>585</v>
-      </c>
-      <c r="I5" t="s">
-        <v>603</v>
-      </c>
-      <c r="J5" t="s">
-        <v>621</v>
-      </c>
-      <c r="K5" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>575</v>
-      </c>
-      <c r="B6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>554</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="H6" t="s">
-        <v>586</v>
-      </c>
-      <c r="I6" t="s">
-        <v>604</v>
-      </c>
-      <c r="J6" t="s">
-        <v>622</v>
-      </c>
-      <c r="K6" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.545</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.531</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>576</v>
-      </c>
-      <c r="B7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>542</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="H7" t="s">
-        <v>587</v>
-      </c>
-      <c r="I7" t="s">
-        <v>605</v>
-      </c>
-      <c r="J7" t="s">
-        <v>623</v>
-      </c>
-      <c r="K7" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.104</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.344</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>576</v>
-      </c>
-      <c r="B8" t="s">
-        <v>539</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>546</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>588</v>
-      </c>
-      <c r="I8" t="s">
-        <v>606</v>
-      </c>
-      <c r="J8" t="s">
-        <v>624</v>
-      </c>
-      <c r="K8" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.881</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>577</v>
-      </c>
-      <c r="B9" t="s">
-        <v>547</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>553</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>589</v>
-      </c>
-      <c r="I9" t="s">
-        <v>607</v>
-      </c>
-      <c r="J9" t="s">
-        <v>625</v>
-      </c>
-      <c r="K9" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.835</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>577</v>
-      </c>
-      <c r="B10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>555</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>590</v>
-      </c>
-      <c r="I10" t="s">
-        <v>608</v>
-      </c>
-      <c r="J10" t="s">
-        <v>626</v>
-      </c>
-      <c r="K10" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.685</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>578</v>
-      </c>
-      <c r="B11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>550</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>591</v>
-      </c>
-      <c r="I11" t="s">
-        <v>609</v>
-      </c>
-      <c r="J11" t="s">
-        <v>627</v>
-      </c>
-      <c r="K11" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.066</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.636</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4.94</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>578</v>
-      </c>
-      <c r="B12" t="s">
-        <v>548</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>544</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="H12" t="s">
-        <v>592</v>
-      </c>
-      <c r="I12" t="s">
-        <v>610</v>
-      </c>
-      <c r="J12" t="s">
-        <v>628</v>
-      </c>
-      <c r="K12" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.213</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.512</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6.07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>578</v>
-      </c>
-      <c r="B13" t="s">
-        <v>542</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>540</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>593</v>
-      </c>
-      <c r="I13" t="s">
-        <v>611</v>
-      </c>
-      <c r="J13" t="s">
-        <v>629</v>
-      </c>
-      <c r="K13" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.019</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>578</v>
-      </c>
-      <c r="B14" t="s">
-        <v>549</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>543</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H14" t="s">
-        <v>594</v>
-      </c>
-      <c r="I14" t="s">
-        <v>612</v>
-      </c>
-      <c r="J14" t="s">
-        <v>630</v>
-      </c>
-      <c r="K14" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.399</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.028</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>579</v>
-      </c>
-      <c r="B15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>541</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H15" t="s">
-        <v>595</v>
-      </c>
-      <c r="I15" t="s">
-        <v>613</v>
-      </c>
-      <c r="J15" t="s">
-        <v>631</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.473</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>580</v>
-      </c>
-      <c r="B16" t="s">
-        <v>555</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>552</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="H16" t="s">
-        <v>596</v>
-      </c>
-      <c r="I16" t="s">
-        <v>614</v>
-      </c>
-      <c r="J16" t="s">
-        <v>632</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>580</v>
-      </c>
-      <c r="B17" t="s">
-        <v>546</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>557</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>597</v>
-      </c>
-      <c r="I17" t="s">
-        <v>615</v>
-      </c>
-      <c r="J17" t="s">
-        <v>633</v>
-      </c>
-      <c r="K17" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2.382</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.323</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>581</v>
-      </c>
-      <c r="B18" t="s">
-        <v>545</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>547</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="H18" t="s">
-        <v>598</v>
-      </c>
-      <c r="I18" t="s">
-        <v>616</v>
-      </c>
-      <c r="J18" t="s">
-        <v>634</v>
-      </c>
-      <c r="K18" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.994</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>581</v>
-      </c>
-      <c r="B19" t="s">
-        <v>551</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>539</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H19" t="s">
-        <v>599</v>
-      </c>
-      <c r="I19" t="s">
-        <v>617</v>
-      </c>
-      <c r="J19" t="s">
-        <v>635</v>
-      </c>
-      <c r="K19" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.048</v>
-      </c>
-      <c r="O19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -4883,6 +3863,1026 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" t="s">
+        <v>568</v>
+      </c>
+      <c r="L1" t="s">
+        <v>569</v>
+      </c>
+      <c r="M1" t="s">
+        <v>570</v>
+      </c>
+      <c r="N1" t="s">
+        <v>571</v>
+      </c>
+      <c r="O1" t="s">
+        <v>572</v>
+      </c>
+      <c r="P1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2" t="s">
+        <v>600</v>
+      </c>
+      <c r="J2" t="s">
+        <v>618</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" t="s">
+        <v>601</v>
+      </c>
+      <c r="J3" t="s">
+        <v>619</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I4" t="s">
+        <v>602</v>
+      </c>
+      <c r="J4" t="s">
+        <v>620</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>585</v>
+      </c>
+      <c r="I5" t="s">
+        <v>603</v>
+      </c>
+      <c r="J5" t="s">
+        <v>621</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>554</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H6" t="s">
+        <v>586</v>
+      </c>
+      <c r="I6" t="s">
+        <v>604</v>
+      </c>
+      <c r="J6" t="s">
+        <v>622</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I7" t="s">
+        <v>605</v>
+      </c>
+      <c r="J7" t="s">
+        <v>623</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>546</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>588</v>
+      </c>
+      <c r="I8" t="s">
+        <v>606</v>
+      </c>
+      <c r="J8" t="s">
+        <v>624</v>
+      </c>
+      <c r="K8" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>589</v>
+      </c>
+      <c r="I9" t="s">
+        <v>607</v>
+      </c>
+      <c r="J9" t="s">
+        <v>625</v>
+      </c>
+      <c r="K9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>555</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>590</v>
+      </c>
+      <c r="I10" t="s">
+        <v>608</v>
+      </c>
+      <c r="J10" t="s">
+        <v>626</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>550</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>591</v>
+      </c>
+      <c r="I11" t="s">
+        <v>609</v>
+      </c>
+      <c r="J11" t="s">
+        <v>627</v>
+      </c>
+      <c r="K11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>544</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>592</v>
+      </c>
+      <c r="I12" t="s">
+        <v>610</v>
+      </c>
+      <c r="J12" t="s">
+        <v>628</v>
+      </c>
+      <c r="K12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>540</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>593</v>
+      </c>
+      <c r="I13" t="s">
+        <v>611</v>
+      </c>
+      <c r="J13" t="s">
+        <v>629</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>543</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>594</v>
+      </c>
+      <c r="I14" t="s">
+        <v>612</v>
+      </c>
+      <c r="J14" t="s">
+        <v>630</v>
+      </c>
+      <c r="K14" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.399</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>541</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>595</v>
+      </c>
+      <c r="I15" t="s">
+        <v>613</v>
+      </c>
+      <c r="J15" t="s">
+        <v>631</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" t="s">
+        <v>555</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>552</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>596</v>
+      </c>
+      <c r="I16" t="s">
+        <v>614</v>
+      </c>
+      <c r="J16" t="s">
+        <v>632</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>580</v>
+      </c>
+      <c r="B17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>557</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>597</v>
+      </c>
+      <c r="I17" t="s">
+        <v>615</v>
+      </c>
+      <c r="J17" t="s">
+        <v>633</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>547</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H18" t="s">
+        <v>598</v>
+      </c>
+      <c r="I18" t="s">
+        <v>616</v>
+      </c>
+      <c r="J18" t="s">
+        <v>634</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>539</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>599</v>
+      </c>
+      <c r="I19" t="s">
+        <v>617</v>
+      </c>
+      <c r="J19" t="s">
+        <v>635</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 

--- a/data/KKD2526.xlsx
+++ b/data/KKD2526.xlsx
@@ -10,12 +10,14 @@
     <sheet name="Stand" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Player xG" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Shots" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stand2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Wedstrijden2" r:id="rId10" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="724">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1771,6 +1773,423 @@
   <si>
     <t xml:space="preserve">PSV II - FC Emmen</t>
   </si>
+  <si>
+    <t xml:space="preserve">box_home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xt_home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xt_away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_for.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_against.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_for.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_against.90</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>HomeName</t>
+  </si>
+  <si>
+    <t>HomeGoals</t>
+  </si>
+  <si>
+    <t>AwayGoals</t>
+  </si>
+  <si>
+    <t>AwayName</t>
+  </si>
+  <si>
+    <t>Home_xG</t>
+  </si>
+  <si>
+    <t>Away_xG</t>
+  </si>
+  <si>
+    <t>home_win_prob</t>
+  </si>
+  <si>
+    <t>draw_prob</t>
+  </si>
+  <si>
+    <t>away_win_prob</t>
+  </si>
+  <si>
+    <t>box_home</t>
+  </si>
+  <si>
+    <t>box_away</t>
+  </si>
+  <si>
+    <t>xt_home</t>
+  </si>
+  <si>
+    <t>xt_away</t>
+  </si>
+  <si>
+    <t>home_odds</t>
+  </si>
+  <si>
+    <t>draw_odds</t>
+  </si>
+  <si>
+    <t>away_odds</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-10</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-08-22</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>2025-08-24</t>
+  </si>
+  <si>
+    <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>FC Den Bosch</t>
+  </si>
+  <si>
+    <t>FC Dordrecht</t>
+  </si>
+  <si>
+    <t>FC Eindhoven</t>
+  </si>
+  <si>
+    <t>TOP Oss</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>Cambuur Leeuwarden</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>VVV Venlo</t>
+  </si>
+  <si>
+    <t>MVV</t>
+  </si>
+  <si>
+    <t>FC Emmen</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
+    <t>FC Utrecht II</t>
+  </si>
+  <si>
+    <t>Almere City FC</t>
+  </si>
+  <si>
+    <t>79.57%</t>
+  </si>
+  <si>
+    <t>27.79%</t>
+  </si>
+  <si>
+    <t>57.46%</t>
+  </si>
+  <si>
+    <t>10.68%</t>
+  </si>
+  <si>
+    <t>74.82%</t>
+  </si>
+  <si>
+    <t>7.35%</t>
+  </si>
+  <si>
+    <t>66.66%</t>
+  </si>
+  <si>
+    <t>42.7%</t>
+  </si>
+  <si>
+    <t>78.09%</t>
+  </si>
+  <si>
+    <t>15.83%</t>
+  </si>
+  <si>
+    <t>45.68%</t>
+  </si>
+  <si>
+    <t>33.85%</t>
+  </si>
+  <si>
+    <t>57.69%</t>
+  </si>
+  <si>
+    <t>23.23%</t>
+  </si>
+  <si>
+    <t>21.76%</t>
+  </si>
+  <si>
+    <t>79.15%</t>
+  </si>
+  <si>
+    <t>46.37%</t>
+  </si>
+  <si>
+    <t>6.52%</t>
+  </si>
+  <si>
+    <t>60.38%</t>
+  </si>
+  <si>
+    <t>82.45%</t>
+  </si>
+  <si>
+    <t>49.51%</t>
+  </si>
+  <si>
+    <t>82.99%</t>
+  </si>
+  <si>
+    <t>29.11%</t>
+  </si>
+  <si>
+    <t>76.02%</t>
+  </si>
+  <si>
+    <t>37.29%</t>
+  </si>
+  <si>
+    <t>42.67%</t>
+  </si>
+  <si>
+    <t>86.7%</t>
+  </si>
+  <si>
+    <t>12.72%</t>
+  </si>
+  <si>
+    <t>29.54%</t>
+  </si>
+  <si>
+    <t>25.34%</t>
+  </si>
+  <si>
+    <t>37.13%</t>
+  </si>
+  <si>
+    <t>15.09%</t>
+  </si>
+  <si>
+    <t>12.86%</t>
+  </si>
+  <si>
+    <t>22.1%</t>
+  </si>
+  <si>
+    <t>29.74%</t>
+  </si>
+  <si>
+    <t>15.94%</t>
+  </si>
+  <si>
+    <t>24.55%</t>
+  </si>
+  <si>
+    <t>34.31%</t>
+  </si>
+  <si>
+    <t>29.46%</t>
+  </si>
+  <si>
+    <t>20.52%</t>
+  </si>
+  <si>
+    <t>23.46%</t>
+  </si>
+  <si>
+    <t>21.17%</t>
+  </si>
+  <si>
+    <t>13.15%</t>
+  </si>
+  <si>
+    <t>24.03%</t>
+  </si>
+  <si>
+    <t>14.43%</t>
+  </si>
+  <si>
+    <t>30.21%</t>
+  </si>
+  <si>
+    <t>12.12%</t>
+  </si>
+  <si>
+    <t>26.79%</t>
+  </si>
+  <si>
+    <t>11.85%</t>
+  </si>
+  <si>
+    <t>24.24%</t>
+  </si>
+  <si>
+    <t>13.85%</t>
+  </si>
+  <si>
+    <t>25.39%</t>
+  </si>
+  <si>
+    <t>31.37%</t>
+  </si>
+  <si>
+    <t>8.57%</t>
+  </si>
+  <si>
+    <t>7.71%</t>
+  </si>
+  <si>
+    <t>17.2%</t>
+  </si>
+  <si>
+    <t>52.19%</t>
+  </si>
+  <si>
+    <t>10.09%</t>
+  </si>
+  <si>
+    <t>79.79%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>27.56%</t>
+  </si>
+  <si>
+    <t>5.97%</t>
+  </si>
+  <si>
+    <t>59.62%</t>
+  </si>
+  <si>
+    <t>20.01%</t>
+  </si>
+  <si>
+    <t>36.69%</t>
+  </si>
+  <si>
+    <t>21.79%</t>
+  </si>
+  <si>
+    <t>53.31%</t>
+  </si>
+  <si>
+    <t>57.07%</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>29.6%</t>
+  </si>
+  <si>
+    <t>79.05%</t>
+  </si>
+  <si>
+    <t>9.41%</t>
+  </si>
+  <si>
+    <t>5.43%</t>
+  </si>
+  <si>
+    <t>23.7%</t>
+  </si>
+  <si>
+    <t>5.16%</t>
+  </si>
+  <si>
+    <t>46.65%</t>
+  </si>
+  <si>
+    <t>10.13%</t>
+  </si>
+  <si>
+    <t>37.32%</t>
+  </si>
+  <si>
+    <t>25.96%</t>
+  </si>
+  <si>
+    <t>4.73%</t>
+  </si>
 </sst>
 </file>
 
@@ -81933,4 +82352,2935 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>590</v>
+      </c>
+      <c r="R1" t="s">
+        <v>591</v>
+      </c>
+      <c r="S1" t="s">
+        <v>592</v>
+      </c>
+      <c r="T1" t="s">
+        <v>593</v>
+      </c>
+      <c r="U1" t="s">
+        <v>594</v>
+      </c>
+      <c r="V1" t="s">
+        <v>595</v>
+      </c>
+      <c r="W1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7.788</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="R2" t="n">
+        <v>151</v>
+      </c>
+      <c r="S2" t="n">
+        <v>77</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.596</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.21333333333333</v>
+      </c>
+      <c r="V2" t="n">
+        <v>50.3333333333333</v>
+      </c>
+      <c r="W2" t="n">
+        <v>25.6666666666667</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.277</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.791</v>
+      </c>
+      <c r="R3" t="n">
+        <v>93</v>
+      </c>
+      <c r="S3" t="n">
+        <v>118</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.42566666666667</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="V3" t="n">
+        <v>31</v>
+      </c>
+      <c r="W3" t="n">
+        <v>39.3333333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.254</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.339</v>
+      </c>
+      <c r="R4" t="n">
+        <v>56</v>
+      </c>
+      <c r="S4" t="n">
+        <v>92</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.08466666666667</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.113</v>
+      </c>
+      <c r="V4" t="n">
+        <v>18.6666666666667</v>
+      </c>
+      <c r="W4" t="n">
+        <v>30.6666666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.534</v>
+      </c>
+      <c r="R5" t="n">
+        <v>95</v>
+      </c>
+      <c r="S5" t="n">
+        <v>47</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.07333333333333</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.51133333333333</v>
+      </c>
+      <c r="V5" t="n">
+        <v>31.6666666666667</v>
+      </c>
+      <c r="W5" t="n">
+        <v>15.6666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.016</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.586</v>
+      </c>
+      <c r="R6" t="n">
+        <v>97</v>
+      </c>
+      <c r="S6" t="n">
+        <v>78</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.33866666666667</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.19533333333333</v>
+      </c>
+      <c r="V6" t="n">
+        <v>32.3333333333333</v>
+      </c>
+      <c r="W6" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.497</v>
+      </c>
+      <c r="R7" t="n">
+        <v>63</v>
+      </c>
+      <c r="S7" t="n">
+        <v>78</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="V7" t="n">
+        <v>21</v>
+      </c>
+      <c r="W7" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.929</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="R8" t="n">
+        <v>94</v>
+      </c>
+      <c r="S8" t="n">
+        <v>31</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.9645</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5715</v>
+      </c>
+      <c r="V8" t="n">
+        <v>47</v>
+      </c>
+      <c r="W8" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="R9" t="n">
+        <v>78</v>
+      </c>
+      <c r="S9" t="n">
+        <v>50</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.05633333333333</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.701333333333333</v>
+      </c>
+      <c r="V9" t="n">
+        <v>26</v>
+      </c>
+      <c r="W9" t="n">
+        <v>16.6666666666667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.651</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="R10" t="n">
+        <v>64</v>
+      </c>
+      <c r="S10" t="n">
+        <v>21</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.3255</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.014</v>
+      </c>
+      <c r="V10" t="n">
+        <v>32</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5.865</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.243</v>
+      </c>
+      <c r="R11" t="n">
+        <v>82</v>
+      </c>
+      <c r="S11" t="n">
+        <v>147</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.955</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.41433333333333</v>
+      </c>
+      <c r="V11" t="n">
+        <v>27.3333333333333</v>
+      </c>
+      <c r="W11" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.857</v>
+      </c>
+      <c r="R12" t="n">
+        <v>53</v>
+      </c>
+      <c r="S12" t="n">
+        <v>110</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.37166666666667</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.28566666666667</v>
+      </c>
+      <c r="V12" t="n">
+        <v>17.6666666666667</v>
+      </c>
+      <c r="W12" t="n">
+        <v>36.6666666666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>12</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.529</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4.236</v>
+      </c>
+      <c r="R13" t="n">
+        <v>110</v>
+      </c>
+      <c r="S13" t="n">
+        <v>88</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="V13" t="n">
+        <v>36.6666666666667</v>
+      </c>
+      <c r="W13" t="n">
+        <v>29.3333333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>13</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.259</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.307</v>
+      </c>
+      <c r="R14" t="n">
+        <v>48</v>
+      </c>
+      <c r="S14" t="n">
+        <v>62</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.08633333333333</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.10233333333333</v>
+      </c>
+      <c r="V14" t="n">
+        <v>16</v>
+      </c>
+      <c r="W14" t="n">
+        <v>20.6666666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>14</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6.324</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4.254</v>
+      </c>
+      <c r="R15" t="n">
+        <v>124</v>
+      </c>
+      <c r="S15" t="n">
+        <v>74</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.127</v>
+      </c>
+      <c r="V15" t="n">
+        <v>62</v>
+      </c>
+      <c r="W15" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.928</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4.413</v>
+      </c>
+      <c r="R16" t="n">
+        <v>90</v>
+      </c>
+      <c r="S16" t="n">
+        <v>91</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="V16" t="n">
+        <v>30</v>
+      </c>
+      <c r="W16" t="n">
+        <v>30.3333333333333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>16</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6.198</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="R17" t="n">
+        <v>65</v>
+      </c>
+      <c r="S17" t="n">
+        <v>95</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.97333333333333</v>
+      </c>
+      <c r="V17" t="n">
+        <v>21.6666666666667</v>
+      </c>
+      <c r="W17" t="n">
+        <v>31.6666666666667</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5.819</v>
+      </c>
+      <c r="R18" t="n">
+        <v>79</v>
+      </c>
+      <c r="S18" t="n">
+        <v>86</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.35333333333333</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.93966666666667</v>
+      </c>
+      <c r="V18" t="n">
+        <v>26.3333333333333</v>
+      </c>
+      <c r="W18" t="n">
+        <v>28.6666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>18</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.244</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>9.026</v>
+      </c>
+      <c r="R19" t="n">
+        <v>71</v>
+      </c>
+      <c r="S19" t="n">
+        <v>145</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.41466666666667</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3.00866666666667</v>
+      </c>
+      <c r="V19" t="n">
+        <v>23.6666666666667</v>
+      </c>
+      <c r="W19" t="n">
+        <v>48.3333333333333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>19</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.242</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.361</v>
+      </c>
+      <c r="R20" t="n">
+        <v>49</v>
+      </c>
+      <c r="S20" t="n">
+        <v>72</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.08066666666667</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="V20" t="n">
+        <v>16.3333333333333</v>
+      </c>
+      <c r="W20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J1" t="s">
+        <v>606</v>
+      </c>
+      <c r="K1" t="s">
+        <v>607</v>
+      </c>
+      <c r="L1" t="s">
+        <v>608</v>
+      </c>
+      <c r="M1" t="s">
+        <v>609</v>
+      </c>
+      <c r="N1" t="s">
+        <v>610</v>
+      </c>
+      <c r="O1" t="s">
+        <v>611</v>
+      </c>
+      <c r="P1" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>644</v>
+      </c>
+      <c r="I2" t="s">
+        <v>671</v>
+      </c>
+      <c r="J2" t="s">
+        <v>698</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>645</v>
+      </c>
+      <c r="I3" t="s">
+        <v>672</v>
+      </c>
+      <c r="J3" t="s">
+        <v>669</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>635</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>646</v>
+      </c>
+      <c r="I4" t="s">
+        <v>673</v>
+      </c>
+      <c r="J4" t="s">
+        <v>699</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>647</v>
+      </c>
+      <c r="I5" t="s">
+        <v>674</v>
+      </c>
+      <c r="J5" t="s">
+        <v>700</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>614</v>
+      </c>
+      <c r="B6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>638</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H6" t="s">
+        <v>648</v>
+      </c>
+      <c r="I6" t="s">
+        <v>675</v>
+      </c>
+      <c r="J6" t="s">
+        <v>701</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>636</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>649</v>
+      </c>
+      <c r="I7" t="s">
+        <v>676</v>
+      </c>
+      <c r="J7" t="s">
+        <v>702</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B8" t="s">
+        <v>631</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>640</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>650</v>
+      </c>
+      <c r="I8" t="s">
+        <v>677</v>
+      </c>
+      <c r="J8" t="s">
+        <v>703</v>
+      </c>
+      <c r="K8" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>634</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>651</v>
+      </c>
+      <c r="I9" t="s">
+        <v>678</v>
+      </c>
+      <c r="J9" t="s">
+        <v>704</v>
+      </c>
+      <c r="K9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>616</v>
+      </c>
+      <c r="B10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>639</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>652</v>
+      </c>
+      <c r="I10" t="s">
+        <v>679</v>
+      </c>
+      <c r="J10" t="s">
+        <v>705</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>630</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>653</v>
+      </c>
+      <c r="I11" t="s">
+        <v>680</v>
+      </c>
+      <c r="J11" t="s">
+        <v>706</v>
+      </c>
+      <c r="K11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>617</v>
+      </c>
+      <c r="B12" t="s">
+        <v>635</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>629</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>654</v>
+      </c>
+      <c r="I12" t="s">
+        <v>681</v>
+      </c>
+      <c r="J12" t="s">
+        <v>707</v>
+      </c>
+      <c r="K12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B13" t="s">
+        <v>636</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>625</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>655</v>
+      </c>
+      <c r="I13" t="s">
+        <v>682</v>
+      </c>
+      <c r="J13" t="s">
+        <v>708</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>617</v>
+      </c>
+      <c r="B14" t="s">
+        <v>637</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>656</v>
+      </c>
+      <c r="I14" t="s">
+        <v>683</v>
+      </c>
+      <c r="J14" t="s">
+        <v>709</v>
+      </c>
+      <c r="K14" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.399</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>618</v>
+      </c>
+      <c r="B15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>627</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>657</v>
+      </c>
+      <c r="I15" t="s">
+        <v>684</v>
+      </c>
+      <c r="J15" t="s">
+        <v>710</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>619</v>
+      </c>
+      <c r="B16" t="s">
+        <v>639</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>643</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>658</v>
+      </c>
+      <c r="I16" t="s">
+        <v>685</v>
+      </c>
+      <c r="J16" t="s">
+        <v>711</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>619</v>
+      </c>
+      <c r="B17" t="s">
+        <v>640</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>628</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>659</v>
+      </c>
+      <c r="I17" t="s">
+        <v>686</v>
+      </c>
+      <c r="J17" t="s">
+        <v>712</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>620</v>
+      </c>
+      <c r="B18" t="s">
+        <v>641</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>632</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H18" t="s">
+        <v>660</v>
+      </c>
+      <c r="I18" t="s">
+        <v>687</v>
+      </c>
+      <c r="J18" t="s">
+        <v>713</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>620</v>
+      </c>
+      <c r="B19" t="s">
+        <v>642</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>631</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>661</v>
+      </c>
+      <c r="I19" t="s">
+        <v>688</v>
+      </c>
+      <c r="J19" t="s">
+        <v>714</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>621</v>
+      </c>
+      <c r="B20" t="s">
+        <v>643</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>640</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>662</v>
+      </c>
+      <c r="I20" t="s">
+        <v>689</v>
+      </c>
+      <c r="J20" t="s">
+        <v>715</v>
+      </c>
+      <c r="K20" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>621</v>
+      </c>
+      <c r="B21" t="s">
+        <v>625</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>638</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>663</v>
+      </c>
+      <c r="I21" t="s">
+        <v>690</v>
+      </c>
+      <c r="J21" t="s">
+        <v>716</v>
+      </c>
+      <c r="K21" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.556</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.386</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>621</v>
+      </c>
+      <c r="B22" t="s">
+        <v>628</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>634</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H22" t="s">
+        <v>664</v>
+      </c>
+      <c r="I22" t="s">
+        <v>691</v>
+      </c>
+      <c r="J22" t="s">
+        <v>717</v>
+      </c>
+      <c r="K22" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.878</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.628</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>621</v>
+      </c>
+      <c r="B23" t="s">
+        <v>630</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>639</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>665</v>
+      </c>
+      <c r="I23" t="s">
+        <v>692</v>
+      </c>
+      <c r="J23" t="s">
+        <v>718</v>
+      </c>
+      <c r="K23" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.645</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>622</v>
+      </c>
+      <c r="B24" t="s">
+        <v>627</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>633</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>666</v>
+      </c>
+      <c r="I24" t="s">
+        <v>693</v>
+      </c>
+      <c r="J24" t="s">
+        <v>719</v>
+      </c>
+      <c r="K24" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.255</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>623</v>
+      </c>
+      <c r="B25" t="s">
+        <v>626</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>629</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>667</v>
+      </c>
+      <c r="I25" t="s">
+        <v>694</v>
+      </c>
+      <c r="J25" t="s">
+        <v>720</v>
+      </c>
+      <c r="K25" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>623</v>
+      </c>
+      <c r="B26" t="s">
+        <v>637</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>636</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H26" t="s">
+        <v>668</v>
+      </c>
+      <c r="I26" t="s">
+        <v>695</v>
+      </c>
+      <c r="J26" t="s">
+        <v>721</v>
+      </c>
+      <c r="K26" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.668</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>624</v>
+      </c>
+      <c r="B27" t="s">
+        <v>632</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>635</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H27" t="s">
+        <v>669</v>
+      </c>
+      <c r="I27" t="s">
+        <v>696</v>
+      </c>
+      <c r="J27" t="s">
+        <v>722</v>
+      </c>
+      <c r="K27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>624</v>
+      </c>
+      <c r="B28" t="s">
+        <v>642</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>641</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>670</v>
+      </c>
+      <c r="I28" t="s">
+        <v>697</v>
+      </c>
+      <c r="J28" t="s">
+        <v>723</v>
+      </c>
+      <c r="K28" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.594</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/data/KKD2526.xlsx
+++ b/data/KKD2526.xlsx
@@ -10,12 +10,14 @@
     <sheet name="Stand" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Player xG" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Shots" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stand2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Wedstrijden2" r:id="rId10" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="818">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1963,6 +1965,513 @@
   <si>
     <t xml:space="preserve">PSV II - FC Emmen</t>
   </si>
+  <si>
+    <t xml:space="preserve">box_home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xt_home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xt_away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_for.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_against.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_for.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_against.90</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>HomeName</t>
+  </si>
+  <si>
+    <t>HomeGoals</t>
+  </si>
+  <si>
+    <t>AwayGoals</t>
+  </si>
+  <si>
+    <t>AwayName</t>
+  </si>
+  <si>
+    <t>Home_xG</t>
+  </si>
+  <si>
+    <t>Away_xG</t>
+  </si>
+  <si>
+    <t>home_win_prob</t>
+  </si>
+  <si>
+    <t>draw_prob</t>
+  </si>
+  <si>
+    <t>away_win_prob</t>
+  </si>
+  <si>
+    <t>box_home</t>
+  </si>
+  <si>
+    <t>box_away</t>
+  </si>
+  <si>
+    <t>xt_home</t>
+  </si>
+  <si>
+    <t>xt_away</t>
+  </si>
+  <si>
+    <t>home_odds</t>
+  </si>
+  <si>
+    <t>draw_odds</t>
+  </si>
+  <si>
+    <t>away_odds</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-10</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-08-22</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>2025-08-24</t>
+  </si>
+  <si>
+    <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>FC Den Bosch</t>
+  </si>
+  <si>
+    <t>FC Dordrecht</t>
+  </si>
+  <si>
+    <t>FC Eindhoven</t>
+  </si>
+  <si>
+    <t>TOP Oss</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>Cambuur Leeuwarden</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>VVV Venlo</t>
+  </si>
+  <si>
+    <t>MVV</t>
+  </si>
+  <si>
+    <t>FC Emmen</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
+    <t>FC Utrecht II</t>
+  </si>
+  <si>
+    <t>Almere City FC</t>
+  </si>
+  <si>
+    <t>79.57%</t>
+  </si>
+  <si>
+    <t>27.79%</t>
+  </si>
+  <si>
+    <t>57.46%</t>
+  </si>
+  <si>
+    <t>10.68%</t>
+  </si>
+  <si>
+    <t>74.82%</t>
+  </si>
+  <si>
+    <t>7.35%</t>
+  </si>
+  <si>
+    <t>66.66%</t>
+  </si>
+  <si>
+    <t>42.7%</t>
+  </si>
+  <si>
+    <t>78.09%</t>
+  </si>
+  <si>
+    <t>15.83%</t>
+  </si>
+  <si>
+    <t>45.68%</t>
+  </si>
+  <si>
+    <t>33.85%</t>
+  </si>
+  <si>
+    <t>57.69%</t>
+  </si>
+  <si>
+    <t>23.23%</t>
+  </si>
+  <si>
+    <t>21.76%</t>
+  </si>
+  <si>
+    <t>79.15%</t>
+  </si>
+  <si>
+    <t>46.37%</t>
+  </si>
+  <si>
+    <t>6.52%</t>
+  </si>
+  <si>
+    <t>60.38%</t>
+  </si>
+  <si>
+    <t>82.45%</t>
+  </si>
+  <si>
+    <t>49.51%</t>
+  </si>
+  <si>
+    <t>82.99%</t>
+  </si>
+  <si>
+    <t>29.11%</t>
+  </si>
+  <si>
+    <t>76.02%</t>
+  </si>
+  <si>
+    <t>37.29%</t>
+  </si>
+  <si>
+    <t>42.67%</t>
+  </si>
+  <si>
+    <t>86.7%</t>
+  </si>
+  <si>
+    <t>67.07%</t>
+  </si>
+  <si>
+    <t>46.93%</t>
+  </si>
+  <si>
+    <t>98.75%</t>
+  </si>
+  <si>
+    <t>49.88%</t>
+  </si>
+  <si>
+    <t>45.53%</t>
+  </si>
+  <si>
+    <t>3.14%</t>
+  </si>
+  <si>
+    <t>36.51%</t>
+  </si>
+  <si>
+    <t>34.9%</t>
+  </si>
+  <si>
+    <t>17.19%</t>
+  </si>
+  <si>
+    <t>12.72%</t>
+  </si>
+  <si>
+    <t>29.54%</t>
+  </si>
+  <si>
+    <t>25.34%</t>
+  </si>
+  <si>
+    <t>37.13%</t>
+  </si>
+  <si>
+    <t>15.09%</t>
+  </si>
+  <si>
+    <t>12.86%</t>
+  </si>
+  <si>
+    <t>22.1%</t>
+  </si>
+  <si>
+    <t>29.74%</t>
+  </si>
+  <si>
+    <t>15.94%</t>
+  </si>
+  <si>
+    <t>24.55%</t>
+  </si>
+  <si>
+    <t>34.31%</t>
+  </si>
+  <si>
+    <t>29.46%</t>
+  </si>
+  <si>
+    <t>20.52%</t>
+  </si>
+  <si>
+    <t>23.46%</t>
+  </si>
+  <si>
+    <t>21.17%</t>
+  </si>
+  <si>
+    <t>13.15%</t>
+  </si>
+  <si>
+    <t>24.03%</t>
+  </si>
+  <si>
+    <t>14.43%</t>
+  </si>
+  <si>
+    <t>30.21%</t>
+  </si>
+  <si>
+    <t>12.12%</t>
+  </si>
+  <si>
+    <t>26.79%</t>
+  </si>
+  <si>
+    <t>11.85%</t>
+  </si>
+  <si>
+    <t>24.24%</t>
+  </si>
+  <si>
+    <t>13.85%</t>
+  </si>
+  <si>
+    <t>25.39%</t>
+  </si>
+  <si>
+    <t>31.37%</t>
+  </si>
+  <si>
+    <t>8.57%</t>
+  </si>
+  <si>
+    <t>24.18%</t>
+  </si>
+  <si>
+    <t>24.96%</t>
+  </si>
+  <si>
+    <t>1.14%</t>
+  </si>
+  <si>
+    <t>30.89%</t>
+  </si>
+  <si>
+    <t>29.3%</t>
+  </si>
+  <si>
+    <t>11.39%</t>
+  </si>
+  <si>
+    <t>26.21%</t>
+  </si>
+  <si>
+    <t>33.51%</t>
+  </si>
+  <si>
+    <t>23.26%</t>
+  </si>
+  <si>
+    <t>7.71%</t>
+  </si>
+  <si>
+    <t>17.2%</t>
+  </si>
+  <si>
+    <t>52.19%</t>
+  </si>
+  <si>
+    <t>10.09%</t>
+  </si>
+  <si>
+    <t>79.79%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>27.56%</t>
+  </si>
+  <si>
+    <t>5.97%</t>
+  </si>
+  <si>
+    <t>59.62%</t>
+  </si>
+  <si>
+    <t>20.01%</t>
+  </si>
+  <si>
+    <t>36.69%</t>
+  </si>
+  <si>
+    <t>21.79%</t>
+  </si>
+  <si>
+    <t>53.31%</t>
+  </si>
+  <si>
+    <t>57.07%</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>29.6%</t>
+  </si>
+  <si>
+    <t>79.05%</t>
+  </si>
+  <si>
+    <t>9.41%</t>
+  </si>
+  <si>
+    <t>5.43%</t>
+  </si>
+  <si>
+    <t>23.7%</t>
+  </si>
+  <si>
+    <t>5.16%</t>
+  </si>
+  <si>
+    <t>46.65%</t>
+  </si>
+  <si>
+    <t>10.13%</t>
+  </si>
+  <si>
+    <t>37.32%</t>
+  </si>
+  <si>
+    <t>25.96%</t>
+  </si>
+  <si>
+    <t>4.73%</t>
+  </si>
+  <si>
+    <t>8.75%</t>
+  </si>
+  <si>
+    <t>28.11%</t>
+  </si>
+  <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>19.23%</t>
+  </si>
+  <si>
+    <t>25.17%</t>
+  </si>
+  <si>
+    <t>85.47%</t>
+  </si>
+  <si>
+    <t>37.28%</t>
+  </si>
+  <si>
+    <t>31.59%</t>
+  </si>
+  <si>
+    <t>59.55%</t>
+  </si>
 </sst>
 </file>
 
@@ -100238,4 +100747,3358 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>654</v>
+      </c>
+      <c r="R1" t="s">
+        <v>655</v>
+      </c>
+      <c r="S1" t="s">
+        <v>656</v>
+      </c>
+      <c r="T1" t="s">
+        <v>657</v>
+      </c>
+      <c r="U1" t="s">
+        <v>658</v>
+      </c>
+      <c r="V1" t="s">
+        <v>659</v>
+      </c>
+      <c r="W1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8.63</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.594</v>
+      </c>
+      <c r="R2" t="n">
+        <v>129</v>
+      </c>
+      <c r="S2" t="n">
+        <v>37</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.87666666666667</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.531333333333333</v>
+      </c>
+      <c r="V2" t="n">
+        <v>43</v>
+      </c>
+      <c r="W2" t="n">
+        <v>12.3333333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7.344</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5.659</v>
+      </c>
+      <c r="R3" t="n">
+        <v>122</v>
+      </c>
+      <c r="S3" t="n">
+        <v>63</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.41475</v>
+      </c>
+      <c r="V3" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.593</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5.576</v>
+      </c>
+      <c r="R4" t="n">
+        <v>117</v>
+      </c>
+      <c r="S4" t="n">
+        <v>132</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.39825</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.394</v>
+      </c>
+      <c r="V4" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="R5" t="n">
+        <v>73</v>
+      </c>
+      <c r="S5" t="n">
+        <v>105</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.98075</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.6875</v>
+      </c>
+      <c r="V5" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.788</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="R6" t="n">
+        <v>151</v>
+      </c>
+      <c r="S6" t="n">
+        <v>77</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.596</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.21333333333333</v>
+      </c>
+      <c r="V6" t="n">
+        <v>50.3333333333333</v>
+      </c>
+      <c r="W6" t="n">
+        <v>25.6666666666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.458</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5.924</v>
+      </c>
+      <c r="R7" t="n">
+        <v>77</v>
+      </c>
+      <c r="S7" t="n">
+        <v>98</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.8645</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.481</v>
+      </c>
+      <c r="V7" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6.776</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.437</v>
+      </c>
+      <c r="R8" t="n">
+        <v>126</v>
+      </c>
+      <c r="S8" t="n">
+        <v>106</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.694</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.35925</v>
+      </c>
+      <c r="V8" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.803</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5.075</v>
+      </c>
+      <c r="R9" t="n">
+        <v>116</v>
+      </c>
+      <c r="S9" t="n">
+        <v>97</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.95075</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.26875</v>
+      </c>
+      <c r="V9" t="n">
+        <v>29</v>
+      </c>
+      <c r="W9" t="n">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.641</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="R10" t="n">
+        <v>81</v>
+      </c>
+      <c r="S10" t="n">
+        <v>33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.21366666666667</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="V10" t="n">
+        <v>27</v>
+      </c>
+      <c r="W10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.773</v>
+      </c>
+      <c r="R11" t="n">
+        <v>91</v>
+      </c>
+      <c r="S11" t="n">
+        <v>67</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.69325</v>
+      </c>
+      <c r="V11" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.542</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7.285</v>
+      </c>
+      <c r="R12" t="n">
+        <v>73</v>
+      </c>
+      <c r="S12" t="n">
+        <v>124</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.3855</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.82125</v>
+      </c>
+      <c r="V12" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="W12" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>12</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.467</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6.287</v>
+      </c>
+      <c r="R13" t="n">
+        <v>103</v>
+      </c>
+      <c r="S13" t="n">
+        <v>113</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.11675</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.57175</v>
+      </c>
+      <c r="V13" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>13</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5.723</v>
+      </c>
+      <c r="R14" t="n">
+        <v>135</v>
+      </c>
+      <c r="S14" t="n">
+        <v>100</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.46666666666667</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.90766666666667</v>
+      </c>
+      <c r="V14" t="n">
+        <v>45</v>
+      </c>
+      <c r="W14" t="n">
+        <v>33.3333333333333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>14</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4.554</v>
+      </c>
+      <c r="R15" t="n">
+        <v>66</v>
+      </c>
+      <c r="S15" t="n">
+        <v>78</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.1385</v>
+      </c>
+      <c r="V15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5.257</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6.809</v>
+      </c>
+      <c r="R16" t="n">
+        <v>91</v>
+      </c>
+      <c r="S16" t="n">
+        <v>103</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.31425</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.70225</v>
+      </c>
+      <c r="V16" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="W16" t="n">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>16</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6.983</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7.236</v>
+      </c>
+      <c r="R17" t="n">
+        <v>79</v>
+      </c>
+      <c r="S17" t="n">
+        <v>119</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.74575</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="V17" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="W17" t="n">
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>8.367</v>
+      </c>
+      <c r="R18" t="n">
+        <v>98</v>
+      </c>
+      <c r="S18" t="n">
+        <v>174</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.7475</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.09175</v>
+      </c>
+      <c r="V18" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>18</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.711</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.437</v>
+      </c>
+      <c r="R19" t="n">
+        <v>75</v>
+      </c>
+      <c r="S19" t="n">
+        <v>83</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.17775</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.85925</v>
+      </c>
+      <c r="V19" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="W19" t="n">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>19</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.906</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.901</v>
+      </c>
+      <c r="R20" t="n">
+        <v>77</v>
+      </c>
+      <c r="S20" t="n">
+        <v>171</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.2265</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.47525</v>
+      </c>
+      <c r="V20" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="W20" t="n">
+        <v>42.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H1" t="s">
+        <v>668</v>
+      </c>
+      <c r="I1" t="s">
+        <v>669</v>
+      </c>
+      <c r="J1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K1" t="s">
+        <v>671</v>
+      </c>
+      <c r="L1" t="s">
+        <v>672</v>
+      </c>
+      <c r="M1" t="s">
+        <v>673</v>
+      </c>
+      <c r="N1" t="s">
+        <v>674</v>
+      </c>
+      <c r="O1" t="s">
+        <v>675</v>
+      </c>
+      <c r="P1" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>711</v>
+      </c>
+      <c r="I2" t="s">
+        <v>747</v>
+      </c>
+      <c r="J2" t="s">
+        <v>783</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>708</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I3" t="s">
+        <v>748</v>
+      </c>
+      <c r="J3" t="s">
+        <v>736</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>702</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>713</v>
+      </c>
+      <c r="I4" t="s">
+        <v>749</v>
+      </c>
+      <c r="J4" t="s">
+        <v>784</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>709</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>714</v>
+      </c>
+      <c r="I5" t="s">
+        <v>750</v>
+      </c>
+      <c r="J5" t="s">
+        <v>785</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>678</v>
+      </c>
+      <c r="B6" t="s">
+        <v>696</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H6" t="s">
+        <v>715</v>
+      </c>
+      <c r="I6" t="s">
+        <v>751</v>
+      </c>
+      <c r="J6" t="s">
+        <v>786</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>679</v>
+      </c>
+      <c r="B7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>703</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>716</v>
+      </c>
+      <c r="I7" t="s">
+        <v>752</v>
+      </c>
+      <c r="J7" t="s">
+        <v>787</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>707</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>717</v>
+      </c>
+      <c r="I8" t="s">
+        <v>753</v>
+      </c>
+      <c r="J8" t="s">
+        <v>788</v>
+      </c>
+      <c r="K8" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B9" t="s">
+        <v>699</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>701</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>718</v>
+      </c>
+      <c r="I9" t="s">
+        <v>754</v>
+      </c>
+      <c r="J9" t="s">
+        <v>789</v>
+      </c>
+      <c r="K9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>680</v>
+      </c>
+      <c r="B10" t="s">
+        <v>700</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>706</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>719</v>
+      </c>
+      <c r="I10" t="s">
+        <v>755</v>
+      </c>
+      <c r="J10" t="s">
+        <v>790</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B11" t="s">
+        <v>701</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>697</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>720</v>
+      </c>
+      <c r="I11" t="s">
+        <v>756</v>
+      </c>
+      <c r="J11" t="s">
+        <v>791</v>
+      </c>
+      <c r="K11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>681</v>
+      </c>
+      <c r="B12" t="s">
+        <v>702</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>696</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>721</v>
+      </c>
+      <c r="I12" t="s">
+        <v>757</v>
+      </c>
+      <c r="J12" t="s">
+        <v>792</v>
+      </c>
+      <c r="K12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>681</v>
+      </c>
+      <c r="B13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>692</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>722</v>
+      </c>
+      <c r="I13" t="s">
+        <v>758</v>
+      </c>
+      <c r="J13" t="s">
+        <v>793</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>681</v>
+      </c>
+      <c r="B14" t="s">
+        <v>704</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>700</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>723</v>
+      </c>
+      <c r="I14" t="s">
+        <v>759</v>
+      </c>
+      <c r="J14" t="s">
+        <v>794</v>
+      </c>
+      <c r="K14" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.399</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>682</v>
+      </c>
+      <c r="B15" t="s">
+        <v>705</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>694</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>724</v>
+      </c>
+      <c r="I15" t="s">
+        <v>760</v>
+      </c>
+      <c r="J15" t="s">
+        <v>795</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>683</v>
+      </c>
+      <c r="B16" t="s">
+        <v>706</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>710</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>725</v>
+      </c>
+      <c r="I16" t="s">
+        <v>761</v>
+      </c>
+      <c r="J16" t="s">
+        <v>796</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>683</v>
+      </c>
+      <c r="B17" t="s">
+        <v>707</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>695</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I17" t="s">
+        <v>762</v>
+      </c>
+      <c r="J17" t="s">
+        <v>797</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>684</v>
+      </c>
+      <c r="B18" t="s">
+        <v>708</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>699</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H18" t="s">
+        <v>727</v>
+      </c>
+      <c r="I18" t="s">
+        <v>763</v>
+      </c>
+      <c r="J18" t="s">
+        <v>798</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>684</v>
+      </c>
+      <c r="B19" t="s">
+        <v>709</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>698</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>728</v>
+      </c>
+      <c r="I19" t="s">
+        <v>764</v>
+      </c>
+      <c r="J19" t="s">
+        <v>799</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>685</v>
+      </c>
+      <c r="B20" t="s">
+        <v>710</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>707</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>729</v>
+      </c>
+      <c r="I20" t="s">
+        <v>765</v>
+      </c>
+      <c r="J20" t="s">
+        <v>800</v>
+      </c>
+      <c r="K20" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>685</v>
+      </c>
+      <c r="B21" t="s">
+        <v>692</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>705</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>730</v>
+      </c>
+      <c r="I21" t="s">
+        <v>766</v>
+      </c>
+      <c r="J21" t="s">
+        <v>801</v>
+      </c>
+      <c r="K21" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.556</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.386</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>685</v>
+      </c>
+      <c r="B22" t="s">
+        <v>695</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>701</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H22" t="s">
+        <v>731</v>
+      </c>
+      <c r="I22" t="s">
+        <v>767</v>
+      </c>
+      <c r="J22" t="s">
+        <v>802</v>
+      </c>
+      <c r="K22" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.878</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.628</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>685</v>
+      </c>
+      <c r="B23" t="s">
+        <v>697</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>706</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>732</v>
+      </c>
+      <c r="I23" t="s">
+        <v>768</v>
+      </c>
+      <c r="J23" t="s">
+        <v>803</v>
+      </c>
+      <c r="K23" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.645</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>686</v>
+      </c>
+      <c r="B24" t="s">
+        <v>694</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>700</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>733</v>
+      </c>
+      <c r="I24" t="s">
+        <v>769</v>
+      </c>
+      <c r="J24" t="s">
+        <v>804</v>
+      </c>
+      <c r="K24" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.255</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>687</v>
+      </c>
+      <c r="B25" t="s">
+        <v>693</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>696</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>734</v>
+      </c>
+      <c r="I25" t="s">
+        <v>770</v>
+      </c>
+      <c r="J25" t="s">
+        <v>805</v>
+      </c>
+      <c r="K25" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>687</v>
+      </c>
+      <c r="B26" t="s">
+        <v>704</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>703</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H26" t="s">
+        <v>735</v>
+      </c>
+      <c r="I26" t="s">
+        <v>771</v>
+      </c>
+      <c r="J26" t="s">
+        <v>806</v>
+      </c>
+      <c r="K26" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.668</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>688</v>
+      </c>
+      <c r="B27" t="s">
+        <v>699</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>702</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H27" t="s">
+        <v>736</v>
+      </c>
+      <c r="I27" t="s">
+        <v>772</v>
+      </c>
+      <c r="J27" t="s">
+        <v>807</v>
+      </c>
+      <c r="K27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>688</v>
+      </c>
+      <c r="B28" t="s">
+        <v>709</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>708</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>737</v>
+      </c>
+      <c r="I28" t="s">
+        <v>773</v>
+      </c>
+      <c r="J28" t="s">
+        <v>808</v>
+      </c>
+      <c r="K28" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.594</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>689</v>
+      </c>
+      <c r="B29" t="s">
+        <v>708</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>705</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>738</v>
+      </c>
+      <c r="I29" t="s">
+        <v>774</v>
+      </c>
+      <c r="J29" t="s">
+        <v>809</v>
+      </c>
+      <c r="K29" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>689</v>
+      </c>
+      <c r="B30" t="s">
+        <v>706</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>693</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H30" t="s">
+        <v>739</v>
+      </c>
+      <c r="I30" t="s">
+        <v>775</v>
+      </c>
+      <c r="J30" t="s">
+        <v>810</v>
+      </c>
+      <c r="K30" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.469</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>689</v>
+      </c>
+      <c r="B31" t="s">
+        <v>698</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>697</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>740</v>
+      </c>
+      <c r="I31" t="s">
+        <v>776</v>
+      </c>
+      <c r="J31" t="s">
+        <v>811</v>
+      </c>
+      <c r="K31" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.701</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>689</v>
+      </c>
+      <c r="B32" t="s">
+        <v>700</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>699</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>741</v>
+      </c>
+      <c r="I32" t="s">
+        <v>777</v>
+      </c>
+      <c r="J32" t="s">
+        <v>812</v>
+      </c>
+      <c r="K32" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>689</v>
+      </c>
+      <c r="B33" t="s">
+        <v>703</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>695</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H33" t="s">
+        <v>742</v>
+      </c>
+      <c r="I33" t="s">
+        <v>778</v>
+      </c>
+      <c r="J33" t="s">
+        <v>813</v>
+      </c>
+      <c r="K33" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>689</v>
+      </c>
+      <c r="B34" t="s">
+        <v>696</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>694</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>743</v>
+      </c>
+      <c r="I34" t="s">
+        <v>779</v>
+      </c>
+      <c r="J34" t="s">
+        <v>814</v>
+      </c>
+      <c r="K34" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.124</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>689</v>
+      </c>
+      <c r="B35" t="s">
+        <v>707</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>709</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H35" t="s">
+        <v>744</v>
+      </c>
+      <c r="I35" t="s">
+        <v>780</v>
+      </c>
+      <c r="J35" t="s">
+        <v>815</v>
+      </c>
+      <c r="K35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.427</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>690</v>
+      </c>
+      <c r="B36" t="s">
+        <v>701</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>710</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H36" t="s">
+        <v>745</v>
+      </c>
+      <c r="I36" t="s">
+        <v>781</v>
+      </c>
+      <c r="J36" t="s">
+        <v>816</v>
+      </c>
+      <c r="K36" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>691</v>
+      </c>
+      <c r="B37" t="s">
+        <v>702</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>704</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H37" t="s">
+        <v>746</v>
+      </c>
+      <c r="I37" t="s">
+        <v>782</v>
+      </c>
+      <c r="J37" t="s">
+        <v>817</v>
+      </c>
+      <c r="K37" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.247</v>
+      </c>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>